--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -73,12 +73,28 @@
     <t>金币不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NoPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +147,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -169,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -186,6 +209,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -492,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,6 +601,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shoot\bin\xlsx\type\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -89,12 +84,28 @@
     <t>账户错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mailNoExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagNotEnough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包空间不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,10 +321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +355,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,21 +530,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -557,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -568,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -579,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -590,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -601,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -612,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -621,6 +630,28 @@
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bin/xlsx/type/TipType.xlsx
+++ b/bin/xlsx/type/TipType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>背包空间不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailHasItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件有物品，不能删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -654,6 +662,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
